--- a/InputData/bldgs/SoCEUtiNTY/Share of Cpnt E Use that is New This Year.xlsx
+++ b/InputData/bldgs/SoCEUtiNTY/Share of Cpnt E Use that is New This Year.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathaniyer/Library/Containers/com.microsoft.Excel/Data/state-eps-data-repository/template_state/bldgs/SoCEUtiNTY/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/wa/bldgs/soceutinty/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC248548-E3B4-724A-80CF-6D6B27804D76}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A015EE83-5F24-DD4E-AC48-91ECE889A792}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -1454,7 +1454,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1533,6 +1533,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Body: normal cell" xfId="5" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1879,7 +1880,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView topLeftCell="A26" workbookViewId="0">
       <selection activeCell="B55" sqref="B55"/>
@@ -1890,12 +1891,15 @@
     <col min="2" max="2" width="52" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" s="42">
+        <v>44307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1903,57 +1907,57 @@
         <v>365</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="32">
         <v>2017</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" s="30" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B12" s="32">
         <v>2017</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>338</v>
       </c>

--- a/InputData/bldgs/SoCEUtiNTY/Share of Cpnt E Use that is New This Year.xlsx
+++ b/InputData/bldgs/SoCEUtiNTY/Share of Cpnt E Use that is New This Year.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/wa/bldgs/soceutinty/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/bldgs/soceutinty/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A015EE83-5F24-DD4E-AC48-91ECE889A792}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{078C7DD8-4A6F-4F49-8C92-3717B88CE898}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
